--- a/initial.xlsx
+++ b/initial.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACAF5474-4D19-489E-A6F1-1648663221F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37FB30F6-1D5E-480B-893B-295A58A620E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,39 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>vsd</t>
-  </si>
-  <si>
-    <t>gre</t>
-  </si>
-  <si>
-    <t>reg</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>fdf</t>
-  </si>
-  <si>
-    <t>sd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Popescu Ion</t>
+  </si>
+  <si>
+    <t>Suciu Vasile</t>
+  </si>
+  <si>
+    <t>Dobrescu Ilie</t>
+  </si>
+  <si>
+    <t>Elena Vasile</t>
+  </si>
+  <si>
+    <t>Lipan Victoria</t>
+  </si>
+  <si>
+    <t>Edmundo Romeo</t>
+  </si>
+  <si>
+    <t>Negrescu Elena</t>
+  </si>
+  <si>
+    <t>Grecu Ioana</t>
+  </si>
+  <si>
+    <t>Fodor Ionel</t>
+  </si>
+  <si>
+    <t>Florincas Vasile</t>
+  </si>
+  <si>
+    <t>Furdui Iancu</t>
+  </si>
+  <si>
+    <t>Ciobanu Lucretia</t>
   </si>
 </sst>
 </file>
@@ -88,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,70 +374,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:B12">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>